--- a/Участок ремонта форм/Формокомплекты/Заявки на изготовление/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Заявки на изготовление/Шапка.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Заявки на изготовление\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF483E1-F890-4E56-9871-717979ABC952}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="72" windowWidth="17052" windowHeight="11928"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Чистовая форма</t>
   </si>
@@ -72,9 +80,6 @@
     <t>Начальник участка ремонта форм</t>
   </si>
   <si>
-    <t>Количество деталей</t>
-  </si>
-  <si>
     <t>Материал</t>
   </si>
   <si>
@@ -123,22 +128,49 @@
     <t>По рабочим кромкам кроме продольной</t>
   </si>
   <si>
-    <t>Комплектация на бутылку   от 12.03.2019 г.</t>
-  </si>
-  <si>
-    <t>Состав формокомплекта для производства бутылки 0,5 л.                                                          тип Х-ВКПв-4-500 (Miller)</t>
-  </si>
-  <si>
     <t>А.Д. Гавриленко</t>
   </si>
   <si>
-    <t>—</t>
+    <t>Комплектация на бутылку   от 24.06.2020 г.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Корпус держателей хватков</t>
+  </si>
+  <si>
+    <t>Графитовые вставки</t>
+  </si>
+  <si>
+    <t>Графит</t>
+  </si>
+  <si>
+    <t>2 пары</t>
+  </si>
+  <si>
+    <t>Количество деталей, шт.</t>
+  </si>
+  <si>
+    <t>24 пары</t>
+  </si>
+  <si>
+    <t>120 пар</t>
+  </si>
+  <si>
+    <t>3 пары</t>
+  </si>
+  <si>
+    <t>Состав формокомплекта для производства бутылки 0,5 л. тип XXI-В-30 -4А-500-22 (Штоф Кристалл)</t>
+  </si>
+  <si>
+    <t>Стеклоформующие машины IS-8 - (5 ½)DК  фирмы Emhart Glass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,52 +328,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -354,8 +377,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,6 +482,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -485,6 +534,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -660,379 +726,423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="D7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <f>A7+1</f>
+        <v>2</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="C8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <f>A6+1</f>
+      <c r="E8" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="F8" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <f t="shared" ref="A9:A16" si="0">A8+1</f>
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <f t="shared" ref="A8:A15" si="0">A7+1</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="F9" s="6">
         <v>32</v>
       </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="C10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="F10" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="C11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="B12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="F12" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3</v>
-      </c>
-      <c r="F12" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="C13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8">
+      <c r="C14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="C15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8">
+      <c r="B16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <f>A15+1</f>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <f>A16+1</f>
         <v>11</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8">
+      <c r="C17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <f t="shared" ref="A17" si="1">A16+1</f>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <f t="shared" ref="A18:A20" si="1">A17+1</f>
         <v>12</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8">
-        <v>2</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="C18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="6" t="s">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>

--- a/Участок ремонта форм/Формокомплекты/Заявки на изготовление/Шапка.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Заявки на изготовление/Шапка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Заявки на изготовление\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF483E1-F890-4E56-9871-717979ABC952}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9242B5-6882-44C2-96EB-F1CA9756E490}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Чистовая форма</t>
   </si>
@@ -131,9 +131,6 @@
     <t>А.Д. Гавриленко</t>
   </si>
   <si>
-    <t>Комплектация на бутылку   от 24.06.2020 г.</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>2 пары</t>
-  </si>
-  <si>
     <t>Количество деталей, шт.</t>
   </si>
   <si>
@@ -158,20 +152,41 @@
     <t>120 пар</t>
   </si>
   <si>
-    <t>3 пары</t>
-  </si>
-  <si>
-    <t>Состав формокомплекта для производства бутылки 0,5 л. тип XXI-В-30 -4А-500-22 (Штоф Кристалл)</t>
-  </si>
-  <si>
     <t>Стеклоформующие машины IS-8 - (5 ½)DК  фирмы Emhart Glass</t>
+  </si>
+  <si>
+    <t>Главный конструктор</t>
+  </si>
+  <si>
+    <t>А.Н. Веко</t>
+  </si>
+  <si>
+    <t>УТВЕРЖДАЮ:</t>
+  </si>
+  <si>
+    <t>ООО "Стеклозавод "Ведатранзит"</t>
+  </si>
+  <si>
+    <t>Зам. директора</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _______________И.М. Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Комплектация на бутылку   от 22.02.2021 г.</t>
+  </si>
+  <si>
+    <t>Состав формокомплекта для производства бутылки 0,5 л. (Белица)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +217,18 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -321,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -353,7 +380,21 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,16 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,405 +776,441 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="7" t="s">
+      <c r="E11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E13" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F13" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <f>A7+1</f>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <f>A13+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E14" s="5">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F14" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <f t="shared" ref="A9:A16" si="0">A8+1</f>
+    <row r="15" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <f t="shared" ref="A15:A22" si="0">A14+1</f>
         <v>3</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F15" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F16" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="5">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="5">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E19" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F19" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="5">
+      <c r="D20" s="14"/>
+      <c r="E20" s="5">
         <v>2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F20" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E21" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F21" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="5">
+      <c r="D22" s="14"/>
+      <c r="E22" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F22" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <f>A16+1</f>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <f>A22+1</f>
         <v>11</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="5">
+      <c r="D23" s="14"/>
+      <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F23" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
-        <f t="shared" ref="A18:A20" si="1">A17+1</f>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <f t="shared" ref="A24:A26" si="1">A23+1</f>
         <v>12</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="D24" s="14"/>
+      <c r="E24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="5" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="5" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
